--- a/数据汇总表.xlsx
+++ b/数据汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GLM-UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D01E57BF-3800-499E-BAAD-DFEF8D624858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AAEBCC-B753-4BFC-B968-B1A7D44F034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5C37EBC3-D52F-49A4-8B68-7CE0EEFCFC9D}"/>
   </bookViews>
@@ -209,7 +209,7 @@
                   <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>88</c:v>
+                  <c:v>148</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>130</c:v>
@@ -218,7 +218,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>458</c:v>
+                  <c:v>548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,7 +1388,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1418,6 +1418,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="1">
+        <f>SUM(B2,C2)</f>
         <v>240</v>
       </c>
     </row>
@@ -1426,13 +1427,14 @@
         <v>4</v>
       </c>
       <c r="B3" s="1">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>88</v>
+        <f t="shared" ref="D3:D6" si="0">SUM(B3,C3)</f>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1446,6 +1448,7 @@
         <v>208</v>
       </c>
       <c r="D4" s="1">
+        <f t="shared" si="0"/>
         <v>338</v>
       </c>
     </row>
@@ -1460,6 +1463,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -1468,13 +1472,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="1">
-        <v>458</v>
+        <f>SUM(B2,B3,B4,B5)</f>
+        <v>548</v>
       </c>
       <c r="C6" s="1">
+        <f t="shared" ref="C6:D6" si="1">SUM(C2,C3,C4,C5)</f>
         <v>208</v>
       </c>
       <c r="D6" s="1">
-        <v>666</v>
+        <f t="shared" si="1"/>
+        <v>756</v>
       </c>
     </row>
   </sheetData>

--- a/数据汇总表.xlsx
+++ b/数据汇总表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GLM-UML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17AAEBCC-B753-4BFC-B968-B1A7D44F034D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE9B78E7-1131-4D90-8C0C-EB1384D59096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{5C37EBC3-D52F-49A4-8B68-7CE0EEFCFC9D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>有效</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +61,10 @@
   </si>
   <si>
     <t>张一淼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>others</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -178,9 +182,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>朱诗雨</c:v>
                 </c:pt>
@@ -194,6 +198,9 @@
                   <c:v>张一淼</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>others</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>汇总</c:v>
                 </c:pt>
               </c:strCache>
@@ -201,12 +208,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>Sheet1!$B$2:$B$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>240</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>148</c:v>
@@ -218,7 +225,10 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>548</c:v>
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>596</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -255,9 +265,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>Sheet1!$A$2:$A$7</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>朱诗雨</c:v>
                 </c:pt>
@@ -271,6 +281,9 @@
                   <c:v>张一淼</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>others</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>汇总</c:v>
                 </c:pt>
               </c:strCache>
@@ -278,10 +291,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$6</c:f>
+              <c:f>Sheet1!$C$2:$C$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -295,6 +308,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>208</c:v>
                 </c:pt>
               </c:numCache>
@@ -1051,16 +1067,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>107157</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>206376</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95254</xdr:rowOff>
+      <xdr:rowOff>15878</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>67469</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>159548</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>166688</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>80172</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1385,10 +1401,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6811584-4DF1-414A-927B-E5A3A1CA1438}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1412,14 +1428,14 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1">
         <v>0</v>
       </c>
       <c r="D2" s="1">
         <f>SUM(B2,C2)</f>
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1469,19 +1485,34 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f>SUM(B6,C6)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="1">
-        <f>SUM(B2,B3,B4,B5)</f>
-        <v>548</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" ref="C6:D6" si="1">SUM(C2,C3,C4,C5)</f>
+      <c r="B7" s="1">
+        <f>SUM(B2,B3,B4,B6,B5)</f>
+        <v>596</v>
+      </c>
+      <c r="C7" s="1">
+        <f>SUM(C2,C3,C4,C5)</f>
         <v>208</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="1"/>
-        <v>756</v>
+      <c r="D7" s="1">
+        <f>SUM(D2,D3,D4,D5)</f>
+        <v>786</v>
       </c>
     </row>
   </sheetData>
